--- a/Appendix/A/6/MoviesOverlap.xlsx
+++ b/Appendix/A/6/MoviesOverlap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="345" windowWidth="14115" windowHeight="7725"/>
+    <workbookView xWindow="720" yWindow="345" windowWidth="14115" windowHeight="7725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>MID</t>
   </si>
@@ -65,12 +65,33 @@
   <si>
     <t>SET 6</t>
   </si>
+  <si>
+    <t>A-BOM</t>
+  </si>
+  <si>
+    <t>B-FDG</t>
+  </si>
+  <si>
+    <t>C-FXM</t>
+  </si>
+  <si>
+    <t>D-IMDB</t>
+  </si>
+  <si>
+    <t>E-MC</t>
+  </si>
+  <si>
+    <t>F-ROT</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,8 +99,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,8 +126,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -101,11 +141,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -114,6 +226,40 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -417,11 +563,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I779"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A515" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3:H686"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4408,7 +4555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>189</v>
       </c>
@@ -4648,7 +4795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>232</v>
       </c>
@@ -6298,7 +6445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>691</v>
       </c>
@@ -6598,7 +6745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>17</v>
       </c>
@@ -6688,7 +6835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>45</v>
       </c>
@@ -6928,7 +7075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>92</v>
       </c>
@@ -7048,7 +7195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>126</v>
       </c>
@@ -7978,7 +8125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <v>368</v>
       </c>
@@ -8128,7 +8275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>386</v>
       </c>
@@ -8488,7 +8635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
         <v>460</v>
       </c>
@@ -8638,7 +8785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
         <v>516</v>
       </c>
@@ -8668,7 +8815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
         <v>528</v>
       </c>
@@ -8848,7 +8995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
         <v>573</v>
       </c>
@@ -8878,7 +9025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="3">
         <v>576</v>
       </c>
@@ -9568,7 +9715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="3">
         <v>6</v>
       </c>
@@ -9598,7 +9745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="3">
         <v>13</v>
       </c>
@@ -9628,7 +9775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3">
         <v>16</v>
       </c>
@@ -9748,7 +9895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="3">
         <v>40</v>
       </c>
@@ -9778,7 +9925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3">
         <v>50</v>
       </c>
@@ -9808,7 +9955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="3">
         <v>54</v>
       </c>
@@ -9958,7 +10105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3">
         <v>96</v>
       </c>
@@ -10078,7 +10225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="3">
         <v>114</v>
       </c>
@@ -10198,7 +10345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="3">
         <v>135</v>
       </c>
@@ -10228,7 +10375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="3">
         <v>136</v>
       </c>
@@ -10258,7 +10405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="3">
         <v>141</v>
       </c>
@@ -10318,7 +10465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="3">
         <v>147</v>
       </c>
@@ -10438,7 +10585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="3">
         <v>167</v>
       </c>
@@ -10498,7 +10645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="3">
         <v>175</v>
       </c>
@@ -10588,7 +10735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="3">
         <v>215</v>
       </c>
@@ -10678,7 +10825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="3">
         <v>241</v>
       </c>
@@ -10708,7 +10855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="3">
         <v>248</v>
       </c>
@@ -10738,7 +10885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3">
         <v>252</v>
       </c>
@@ -10768,7 +10915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="3">
         <v>260</v>
       </c>
@@ -10828,7 +10975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="3">
         <v>289</v>
       </c>
@@ -10918,7 +11065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="3">
         <v>304</v>
       </c>
@@ -10948,7 +11095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="3">
         <v>308</v>
       </c>
@@ -11008,7 +11155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="3">
         <v>324</v>
       </c>
@@ -11038,7 +11185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="3">
         <v>329</v>
       </c>
@@ -11068,7 +11215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="3">
         <v>333</v>
       </c>
@@ -11188,7 +11335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="3">
         <v>362</v>
       </c>
@@ -11398,7 +11545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="3">
         <v>428</v>
       </c>
@@ -11428,7 +11575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="3">
         <v>430</v>
       </c>
@@ -11458,7 +11605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="3">
         <v>434</v>
       </c>
@@ -11488,7 +11635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="3">
         <v>471</v>
       </c>
@@ -11518,7 +11665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="3">
         <v>472</v>
       </c>
@@ -11548,7 +11695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="3">
         <v>473</v>
       </c>
@@ -11578,7 +11725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="3">
         <v>475</v>
       </c>
@@ -11638,7 +11785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="3">
         <v>482</v>
       </c>
@@ -11668,7 +11815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="3">
         <v>483</v>
       </c>
@@ -11698,7 +11845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="3">
         <v>488</v>
       </c>
@@ -11728,7 +11875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="3">
         <v>489</v>
       </c>
@@ -11758,7 +11905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="3">
         <v>490</v>
       </c>
@@ -11818,7 +11965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="3">
         <v>511</v>
       </c>
@@ -11878,7 +12025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="3">
         <v>514</v>
       </c>
@@ -11968,7 +12115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="3">
         <v>540</v>
       </c>
@@ -12058,7 +12205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="3">
         <v>572</v>
       </c>
@@ -12118,7 +12265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="3">
         <v>598</v>
       </c>
@@ -12148,7 +12295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="3">
         <v>601</v>
       </c>
@@ -12208,7 +12355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="3">
         <v>620</v>
       </c>
@@ -12268,7 +12415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="3">
         <v>624</v>
       </c>
@@ -12298,7 +12445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="3">
         <v>630</v>
       </c>
@@ -12328,7 +12475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="3">
         <v>643</v>
       </c>
@@ -12508,7 +12655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="3">
         <v>694</v>
       </c>
@@ -12598,7 +12745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="3">
         <v>742</v>
       </c>
@@ -12628,7 +12775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="3">
         <v>751</v>
       </c>
@@ -12658,7 +12805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="3">
         <v>754</v>
       </c>
@@ -12838,7 +12985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="3">
         <v>30</v>
       </c>
@@ -12868,7 +13015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="3">
         <v>36</v>
       </c>
@@ -12958,7 +13105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="3">
         <v>68</v>
       </c>
@@ -12988,7 +13135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="3">
         <v>69</v>
       </c>
@@ -13048,7 +13195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="3">
         <v>86</v>
       </c>
@@ -13078,7 +13225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="3">
         <v>100</v>
       </c>
@@ -13108,7 +13255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="3">
         <v>104</v>
       </c>
@@ -13138,7 +13285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="3">
         <v>105</v>
       </c>
@@ -13168,7 +13315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="3">
         <v>110</v>
       </c>
@@ -13228,7 +13375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="3">
         <v>113</v>
       </c>
@@ -13258,7 +13405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="3">
         <v>117</v>
       </c>
@@ -13378,7 +13525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="3">
         <v>179</v>
       </c>
@@ -13408,7 +13555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="3">
         <v>183</v>
       </c>
@@ -13468,7 +13615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="3">
         <v>191</v>
       </c>
@@ -13648,7 +13795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="3">
         <v>220</v>
       </c>
@@ -13678,7 +13825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="3">
         <v>238</v>
       </c>
@@ -13708,7 +13855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="3">
         <v>256</v>
       </c>
@@ -13738,7 +13885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="3">
         <v>262</v>
       </c>
@@ -13888,7 +14035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="3">
         <v>279</v>
       </c>
@@ -13978,7 +14125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="3">
         <v>287</v>
       </c>
@@ -14008,7 +14155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="3">
         <v>293</v>
       </c>
@@ -14038,7 +14185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="3">
         <v>311</v>
       </c>
@@ -14068,7 +14215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="3">
         <v>320</v>
       </c>
@@ -14188,7 +14335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="3">
         <v>341</v>
       </c>
@@ -14308,7 +14455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="3">
         <v>358</v>
       </c>
@@ -14338,7 +14485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="3">
         <v>389</v>
       </c>
@@ -14398,7 +14545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="3">
         <v>395</v>
       </c>
@@ -14488,7 +14635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="3">
         <v>421</v>
       </c>
@@ -14548,7 +14695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="3">
         <v>431</v>
       </c>
@@ -14608,7 +14755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="3">
         <v>463</v>
       </c>
@@ -14638,7 +14785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="3">
         <v>465</v>
       </c>
@@ -14668,7 +14815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="3">
         <v>478</v>
       </c>
@@ -14698,7 +14845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="3">
         <v>487</v>
       </c>
@@ -14758,7 +14905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="3">
         <v>502</v>
       </c>
@@ -14818,7 +14965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="3">
         <v>509</v>
       </c>
@@ -14848,7 +14995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="3">
         <v>513</v>
       </c>
@@ -14878,7 +15025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="3">
         <v>550</v>
       </c>
@@ -14908,7 +15055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="3">
         <v>556</v>
       </c>
@@ -15028,7 +15175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="3">
         <v>570</v>
       </c>
@@ -15058,7 +15205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="3">
         <v>585</v>
       </c>
@@ -15088,7 +15235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="3">
         <v>587</v>
       </c>
@@ -15118,7 +15265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="3">
         <v>595</v>
       </c>
@@ -15148,7 +15295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="3">
         <v>597</v>
       </c>
@@ -15178,7 +15325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="3">
         <v>611</v>
       </c>
@@ -15208,7 +15355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="3">
         <v>615</v>
       </c>
@@ -15268,7 +15415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="3">
         <v>626</v>
       </c>
@@ -15328,7 +15475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="3">
         <v>635</v>
       </c>
@@ -15478,7 +15625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="3">
         <v>656</v>
       </c>
@@ -15538,7 +15685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="3">
         <v>662</v>
       </c>
@@ -15568,7 +15715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="3">
         <v>669</v>
       </c>
@@ -15628,7 +15775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="3">
         <v>676</v>
       </c>
@@ -15658,7 +15805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="3">
         <v>685</v>
       </c>
@@ -15688,7 +15835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="3">
         <v>690</v>
       </c>
@@ -15748,7 +15895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="3">
         <v>698</v>
       </c>
@@ -15778,7 +15925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="3">
         <v>705</v>
       </c>
@@ -15808,7 +15955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="3">
         <v>706</v>
       </c>
@@ -15868,7 +16015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="3">
         <v>732</v>
       </c>
@@ -15898,7 +16045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="3">
         <v>737</v>
       </c>
@@ -15928,7 +16075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="3">
         <v>744</v>
       </c>
@@ -16018,7 +16165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="3">
         <v>753</v>
       </c>
@@ -16048,7 +16195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="3">
         <v>758</v>
       </c>
@@ -16108,7 +16255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="3">
         <v>762</v>
       </c>
@@ -16138,7 +16285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="3">
         <v>763</v>
       </c>
@@ -16198,7 +16345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="3">
         <v>35</v>
       </c>
@@ -16258,7 +16405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="3">
         <v>48</v>
       </c>
@@ -16288,7 +16435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="3">
         <v>49</v>
       </c>
@@ -16318,7 +16465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="3">
         <v>57</v>
       </c>
@@ -16378,7 +16525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="3">
         <v>70</v>
       </c>
@@ -16408,7 +16555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="3">
         <v>73</v>
       </c>
@@ -16438,7 +16585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="3">
         <v>77</v>
       </c>
@@ -16468,7 +16615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="3">
         <v>82</v>
       </c>
@@ -16498,7 +16645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="3">
         <v>88</v>
       </c>
@@ -16528,7 +16675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="3">
         <v>90</v>
       </c>
@@ -16558,7 +16705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="3">
         <v>95</v>
       </c>
@@ -16588,7 +16735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="3">
         <v>101</v>
       </c>
@@ -16618,7 +16765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="3">
         <v>103</v>
       </c>
@@ -16648,7 +16795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="3">
         <v>111</v>
       </c>
@@ -16678,7 +16825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="3">
         <v>116</v>
       </c>
@@ -16768,7 +16915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="3">
         <v>149</v>
       </c>
@@ -16828,7 +16975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="3">
         <v>162</v>
       </c>
@@ -16858,7 +17005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="3">
         <v>163</v>
       </c>
@@ -16888,7 +17035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="3">
         <v>166</v>
       </c>
@@ -16918,7 +17065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="3">
         <v>172</v>
       </c>
@@ -16948,7 +17095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="3">
         <v>178</v>
       </c>
@@ -16978,7 +17125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="3">
         <v>184</v>
       </c>
@@ -17008,7 +17155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="3">
         <v>190</v>
       </c>
@@ -17038,7 +17185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="3">
         <v>203</v>
       </c>
@@ -17068,7 +17215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="3">
         <v>204</v>
       </c>
@@ -17098,7 +17245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="3">
         <v>209</v>
       </c>
@@ -17128,7 +17275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="3">
         <v>212</v>
       </c>
@@ -17158,7 +17305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="3">
         <v>213</v>
       </c>
@@ -17188,7 +17335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="3">
         <v>216</v>
       </c>
@@ -17218,7 +17365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="3">
         <v>225</v>
       </c>
@@ -17248,7 +17395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="3">
         <v>227</v>
       </c>
@@ -17278,7 +17425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="3">
         <v>228</v>
       </c>
@@ -17308,7 +17455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="3">
         <v>229</v>
       </c>
@@ -17338,7 +17485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="3">
         <v>234</v>
       </c>
@@ -17368,7 +17515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="3">
         <v>236</v>
       </c>
@@ -17398,7 +17545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="3">
         <v>245</v>
       </c>
@@ -17428,7 +17575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="3">
         <v>253</v>
       </c>
@@ -17458,7 +17605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="3">
         <v>255</v>
       </c>
@@ -17518,7 +17665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="3">
         <v>259</v>
       </c>
@@ -17548,7 +17695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="3">
         <v>265</v>
       </c>
@@ -17608,7 +17755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="3">
         <v>276</v>
       </c>
@@ -17638,7 +17785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="3">
         <v>278</v>
       </c>
@@ -17668,7 +17815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="3">
         <v>280</v>
       </c>
@@ -17698,7 +17845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="3">
         <v>281</v>
       </c>
@@ -17728,7 +17875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="3">
         <v>288</v>
       </c>
@@ -17758,7 +17905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="3">
         <v>297</v>
       </c>
@@ -17788,7 +17935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="3">
         <v>303</v>
       </c>
@@ -17818,7 +17965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="3">
         <v>309</v>
       </c>
@@ -17848,7 +17995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" s="3">
         <v>315</v>
       </c>
@@ -17908,7 +18055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" s="3">
         <v>318</v>
       </c>
@@ -17938,7 +18085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="3">
         <v>322</v>
       </c>
@@ -17968,7 +18115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="3">
         <v>323</v>
       </c>
@@ -17998,7 +18145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" s="3">
         <v>325</v>
       </c>
@@ -18028,7 +18175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" s="3">
         <v>326</v>
       </c>
@@ -18058,7 +18205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="3">
         <v>328</v>
       </c>
@@ -18118,7 +18265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" s="3">
         <v>346</v>
       </c>
@@ -18148,7 +18295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" s="3">
         <v>348</v>
       </c>
@@ -18178,7 +18325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="3">
         <v>369</v>
       </c>
@@ -18208,7 +18355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="3">
         <v>379</v>
       </c>
@@ -18238,7 +18385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="3">
         <v>381</v>
       </c>
@@ -18268,7 +18415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="3">
         <v>387</v>
       </c>
@@ -18298,7 +18445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" s="3">
         <v>391</v>
       </c>
@@ -18328,7 +18475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" s="3">
         <v>401</v>
       </c>
@@ -18358,7 +18505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" s="3">
         <v>410</v>
       </c>
@@ -18388,7 +18535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="3">
         <v>413</v>
       </c>
@@ -18418,7 +18565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" s="3">
         <v>417</v>
       </c>
@@ -18508,7 +18655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" s="3">
         <v>423</v>
       </c>
@@ -18538,7 +18685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" s="3">
         <v>432</v>
       </c>
@@ -18568,7 +18715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" s="3">
         <v>433</v>
       </c>
@@ -18598,7 +18745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" s="3">
         <v>436</v>
       </c>
@@ -18628,7 +18775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" s="3">
         <v>437</v>
       </c>
@@ -18658,7 +18805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" s="3">
         <v>443</v>
       </c>
@@ -18688,7 +18835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" s="3">
         <v>445</v>
       </c>
@@ -18718,7 +18865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" s="3">
         <v>447</v>
       </c>
@@ -18748,7 +18895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" s="3">
         <v>451</v>
       </c>
@@ -18808,7 +18955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" s="3">
         <v>453</v>
       </c>
@@ -18898,7 +19045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" s="3">
         <v>469</v>
       </c>
@@ -18928,7 +19075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" s="3">
         <v>474</v>
       </c>
@@ -18958,7 +19105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" s="3">
         <v>477</v>
       </c>
@@ -18988,7 +19135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" s="3">
         <v>481</v>
       </c>
@@ -19018,7 +19165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" s="3">
         <v>486</v>
       </c>
@@ -19048,7 +19195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" s="3">
         <v>492</v>
       </c>
@@ -19078,7 +19225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" s="3">
         <v>493</v>
       </c>
@@ -19108,7 +19255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" s="3">
         <v>499</v>
       </c>
@@ -19138,7 +19285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" s="3">
         <v>503</v>
       </c>
@@ -19168,7 +19315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" s="3">
         <v>507</v>
       </c>
@@ -19198,7 +19345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" s="3">
         <v>515</v>
       </c>
@@ -19228,7 +19375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" s="3">
         <v>521</v>
       </c>
@@ -19258,7 +19405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" s="3">
         <v>523</v>
       </c>
@@ -19288,7 +19435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" s="3">
         <v>525</v>
       </c>
@@ -19318,7 +19465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" s="3">
         <v>530</v>
       </c>
@@ -19348,7 +19495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" s="3">
         <v>535</v>
       </c>
@@ -19378,7 +19525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" s="3">
         <v>537</v>
       </c>
@@ -19408,7 +19555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" s="3">
         <v>539</v>
       </c>
@@ -19438,7 +19585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" s="3">
         <v>541</v>
       </c>
@@ -19468,7 +19615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" s="3">
         <v>542</v>
       </c>
@@ -19498,7 +19645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" s="3">
         <v>546</v>
       </c>
@@ -19528,7 +19675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" s="3">
         <v>552</v>
       </c>
@@ -19558,7 +19705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" s="3">
         <v>555</v>
       </c>
@@ -19588,7 +19735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" s="3">
         <v>557</v>
       </c>
@@ -19618,7 +19765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" s="3">
         <v>560</v>
       </c>
@@ -19648,7 +19795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" s="3">
         <v>578</v>
       </c>
@@ -19678,7 +19825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" s="3">
         <v>579</v>
       </c>
@@ -19708,7 +19855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" s="3">
         <v>580</v>
       </c>
@@ -19768,7 +19915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" s="3">
         <v>589</v>
       </c>
@@ -19828,7 +19975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" s="3">
         <v>593</v>
       </c>
@@ -19858,7 +20005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" s="3">
         <v>596</v>
       </c>
@@ -19888,7 +20035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" s="3">
         <v>603</v>
       </c>
@@ -19918,7 +20065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" s="3">
         <v>609</v>
       </c>
@@ -19948,7 +20095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" s="3">
         <v>612</v>
       </c>
@@ -19978,7 +20125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" s="3">
         <v>617</v>
       </c>
@@ -20038,7 +20185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" s="3">
         <v>622</v>
       </c>
@@ -20068,7 +20215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" s="3">
         <v>629</v>
       </c>
@@ -20098,7 +20245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" s="3">
         <v>632</v>
       </c>
@@ -20128,7 +20275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" s="3">
         <v>633</v>
       </c>
@@ -20158,7 +20305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" s="3">
         <v>634</v>
       </c>
@@ -20188,7 +20335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" s="3">
         <v>637</v>
       </c>
@@ -20218,7 +20365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" s="3">
         <v>641</v>
       </c>
@@ -20248,7 +20395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" s="3">
         <v>645</v>
       </c>
@@ -20278,7 +20425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" s="3">
         <v>650</v>
       </c>
@@ -20308,7 +20455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" s="3">
         <v>655</v>
       </c>
@@ -20338,7 +20485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" s="3">
         <v>663</v>
       </c>
@@ -20368,7 +20515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" s="3">
         <v>664</v>
       </c>
@@ -20398,7 +20545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" s="3">
         <v>666</v>
       </c>
@@ -20428,7 +20575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" s="3">
         <v>672</v>
       </c>
@@ -20458,7 +20605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" s="3">
         <v>674</v>
       </c>
@@ -20488,7 +20635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" s="3">
         <v>677</v>
       </c>
@@ -20518,7 +20665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" s="3">
         <v>680</v>
       </c>
@@ -20548,7 +20695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" s="3">
         <v>683</v>
       </c>
@@ -20578,7 +20725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" s="3">
         <v>695</v>
       </c>
@@ -20608,7 +20755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" s="3">
         <v>696</v>
       </c>
@@ -20638,7 +20785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" s="3">
         <v>708</v>
       </c>
@@ -20668,7 +20815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" s="3">
         <v>713</v>
       </c>
@@ -20698,7 +20845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" s="3">
         <v>721</v>
       </c>
@@ -20728,7 +20875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" s="3">
         <v>722</v>
       </c>
@@ -20758,7 +20905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" s="3">
         <v>723</v>
       </c>
@@ -20788,7 +20935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" s="3">
         <v>728</v>
       </c>
@@ -20818,7 +20965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" s="3">
         <v>729</v>
       </c>
@@ -20848,7 +20995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" s="3">
         <v>730</v>
       </c>
@@ -20878,7 +21025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" s="3">
         <v>733</v>
       </c>
@@ -20908,7 +21055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" s="3">
         <v>735</v>
       </c>
@@ -20938,7 +21085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" s="3">
         <v>739</v>
       </c>
@@ -20998,7 +21145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" s="3">
         <v>743</v>
       </c>
@@ -21028,7 +21175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" s="3">
         <v>745</v>
       </c>
@@ -21058,7 +21205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" s="3">
         <v>746</v>
       </c>
@@ -21088,7 +21235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="690" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" s="3">
         <v>755</v>
       </c>
@@ -21118,7 +21265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" s="3">
         <v>757</v>
       </c>
@@ -21148,7 +21295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" s="3">
         <v>759</v>
       </c>
@@ -21178,7 +21325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="693" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" s="3">
         <v>761</v>
       </c>
@@ -21208,7 +21355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" s="3">
         <v>767</v>
       </c>
@@ -21238,7 +21385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="695" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" s="3">
         <v>771</v>
       </c>
@@ -21268,7 +21415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" s="3">
         <v>772</v>
       </c>
@@ -21298,7 +21445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="697" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" s="3">
         <v>774</v>
       </c>
@@ -21328,7 +21475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" s="3">
         <v>776</v>
       </c>
@@ -21358,7 +21505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" s="3">
         <v>18</v>
       </c>
@@ -21388,7 +21535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" s="3">
         <v>42</v>
       </c>
@@ -21418,7 +21565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" s="3">
         <v>81</v>
       </c>
@@ -21448,7 +21595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" s="3">
         <v>158</v>
       </c>
@@ -21478,7 +21625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" s="3">
         <v>185</v>
       </c>
@@ -21508,7 +21655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" s="3">
         <v>208</v>
       </c>
@@ -21538,7 +21685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" s="3">
         <v>224</v>
       </c>
@@ -21568,7 +21715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" s="3">
         <v>230</v>
       </c>
@@ -21598,7 +21745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" s="3">
         <v>273</v>
       </c>
@@ -21628,7 +21775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" s="3">
         <v>295</v>
       </c>
@@ -21658,7 +21805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" s="3">
         <v>314</v>
       </c>
@@ -21688,7 +21835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" s="3">
         <v>317</v>
       </c>
@@ -21718,7 +21865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" s="3">
         <v>321</v>
       </c>
@@ -21748,7 +21895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" s="3">
         <v>347</v>
       </c>
@@ -21778,7 +21925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" s="3">
         <v>349</v>
       </c>
@@ -21808,7 +21955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" s="3">
         <v>355</v>
       </c>
@@ -21838,7 +21985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" s="3">
         <v>363</v>
       </c>
@@ -21868,7 +22015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" s="3">
         <v>398</v>
       </c>
@@ -21898,7 +22045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" s="3">
         <v>402</v>
       </c>
@@ -21928,7 +22075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" s="3">
         <v>405</v>
       </c>
@@ -21958,7 +22105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" s="3">
         <v>414</v>
       </c>
@@ -21988,7 +22135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" s="3">
         <v>435</v>
       </c>
@@ -22018,7 +22165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" s="3">
         <v>457</v>
       </c>
@@ -22048,7 +22195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" s="3">
         <v>458</v>
       </c>
@@ -22078,7 +22225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" s="3">
         <v>459</v>
       </c>
@@ -22108,7 +22255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" s="3">
         <v>461</v>
       </c>
@@ -22138,7 +22285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" s="3">
         <v>464</v>
       </c>
@@ -22168,7 +22315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" s="3">
         <v>466</v>
       </c>
@@ -22198,7 +22345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" s="3">
         <v>468</v>
       </c>
@@ -22228,7 +22375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" s="3">
         <v>484</v>
       </c>
@@ -22258,7 +22405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" s="3">
         <v>485</v>
       </c>
@@ -22288,7 +22435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" s="3">
         <v>495</v>
       </c>
@@ -22318,7 +22465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" s="3">
         <v>497</v>
       </c>
@@ -22348,7 +22495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" s="3">
         <v>500</v>
       </c>
@@ -22378,7 +22525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" s="3">
         <v>501</v>
       </c>
@@ -22408,7 +22555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" s="3">
         <v>517</v>
       </c>
@@ -22438,7 +22585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" s="3">
         <v>524</v>
       </c>
@@ -22468,7 +22615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" s="3">
         <v>529</v>
       </c>
@@ -22498,7 +22645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" s="3">
         <v>532</v>
       </c>
@@ -22528,7 +22675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" s="3">
         <v>533</v>
       </c>
@@ -22558,7 +22705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" s="3">
         <v>536</v>
       </c>
@@ -22588,7 +22735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" s="3">
         <v>544</v>
       </c>
@@ -22618,7 +22765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" s="3">
         <v>549</v>
       </c>
@@ -22648,7 +22795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" s="3">
         <v>562</v>
       </c>
@@ -22678,7 +22825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743" s="3">
         <v>564</v>
       </c>
@@ -22708,7 +22855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" s="3">
         <v>571</v>
       </c>
@@ -22738,7 +22885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" s="3">
         <v>574</v>
       </c>
@@ -22768,7 +22915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" s="3">
         <v>575</v>
       </c>
@@ -22798,7 +22945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" s="3">
         <v>581</v>
       </c>
@@ -22828,7 +22975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" s="3">
         <v>591</v>
       </c>
@@ -22858,7 +23005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" s="3">
         <v>592</v>
       </c>
@@ -22888,7 +23035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" s="3">
         <v>604</v>
       </c>
@@ -22918,7 +23065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751" s="3">
         <v>610</v>
       </c>
@@ -22948,7 +23095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" s="3">
         <v>613</v>
       </c>
@@ -22978,7 +23125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" s="3">
         <v>616</v>
       </c>
@@ -23008,7 +23155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" s="3">
         <v>640</v>
       </c>
@@ -23038,7 +23185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" s="3">
         <v>646</v>
       </c>
@@ -23068,7 +23215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" s="3">
         <v>647</v>
       </c>
@@ -23098,7 +23245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757" s="3">
         <v>651</v>
       </c>
@@ -23128,7 +23275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758" s="3">
         <v>657</v>
       </c>
@@ -23158,7 +23305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" s="3">
         <v>658</v>
       </c>
@@ -23188,7 +23335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760" s="3">
         <v>660</v>
       </c>
@@ -23218,7 +23365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761" s="3">
         <v>671</v>
       </c>
@@ -23248,7 +23395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762" s="3">
         <v>681</v>
       </c>
@@ -23278,7 +23425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763" s="3">
         <v>687</v>
       </c>
@@ -23308,7 +23455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764" s="3">
         <v>689</v>
       </c>
@@ -23338,7 +23485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765" s="3">
         <v>692</v>
       </c>
@@ -23368,7 +23515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766" s="3">
         <v>699</v>
       </c>
@@ -23398,7 +23545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767" s="3">
         <v>702</v>
       </c>
@@ -23428,7 +23575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768" s="3">
         <v>704</v>
       </c>
@@ -23458,7 +23605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769" s="3">
         <v>712</v>
       </c>
@@ -23488,7 +23635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" s="3">
         <v>716</v>
       </c>
@@ -23518,7 +23665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A771" s="3">
         <v>718</v>
       </c>
@@ -23548,7 +23695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772" s="3">
         <v>725</v>
       </c>
@@ -23578,7 +23725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773" s="3">
         <v>726</v>
       </c>
@@ -23608,7 +23755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774" s="3">
         <v>727</v>
       </c>
@@ -23638,7 +23785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775" s="3">
         <v>734</v>
       </c>
@@ -23668,7 +23815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776" s="3">
         <v>769</v>
       </c>
@@ -23698,7 +23845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777" s="3">
         <v>770</v>
       </c>
@@ -23728,7 +23875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" s="3">
         <v>775</v>
       </c>
@@ -23758,7 +23905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779" s="3">
         <v>777</v>
       </c>
@@ -23789,7 +23936,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I779"/>
+  <autoFilter ref="A2:I779">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:I778">
     <sortCondition descending="1" ref="I2:I778"/>
   </sortState>
@@ -23799,13 +23952,191 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="14">
+        <v>287</v>
+      </c>
+      <c r="E3" s="14">
+        <v>152</v>
+      </c>
+      <c r="F3" s="14">
+        <v>200</v>
+      </c>
+      <c r="G3" s="14">
+        <v>279</v>
+      </c>
+      <c r="H3" s="8">
+        <v>324</v>
+      </c>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="15">
+        <v>161</v>
+      </c>
+      <c r="F4" s="15">
+        <v>201</v>
+      </c>
+      <c r="G4" s="15">
+        <v>295</v>
+      </c>
+      <c r="H4" s="10">
+        <v>352</v>
+      </c>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="15">
+        <v>123</v>
+      </c>
+      <c r="G5" s="15">
+        <v>168</v>
+      </c>
+      <c r="H5" s="10">
+        <v>183</v>
+      </c>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="15">
+        <v>272</v>
+      </c>
+      <c r="H6" s="10">
+        <v>256</v>
+      </c>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="10">
+        <v>357</v>
+      </c>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
